--- a/data/income_statement/2digits/size/35_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/35_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>35-Electricity, gas, steam and air conditioning supply</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>35-Electricity, gas, steam and air conditioning supply</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1130 +841,1275 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>77660457.48277001</v>
+        <v>77152861.49598999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>84774404.93146001</v>
+        <v>83807273.8653</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>95647563.52418</v>
+        <v>94471940.09477</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>122096140.79203</v>
+        <v>120628816.79295</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>154946236.14742</v>
+        <v>153912296.99743</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>175617578.05504</v>
+        <v>175519544.40043</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>185518035.66028</v>
+        <v>196523406.90849</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>211551310.92646</v>
+        <v>207409617.05715</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>228993953.47104</v>
+        <v>224467436.62265</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>280188422.38961</v>
+        <v>271807376.13027</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>350409054.1791</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>340202202.53892</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>408327189.792</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>69814242.22666</v>
+        <v>69342642.36322999</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>76035169.68843</v>
+        <v>75122389.00826001</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>85196933.83503</v>
+        <v>84119761.81914</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>107670889.38993</v>
+        <v>106266179.43569</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>138903585.97583</v>
+        <v>137936553.83547</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>152394313.32945</v>
+        <v>152393701.78113</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>165239423.08988</v>
+        <v>176164176.36477</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>204563294.50241</v>
+        <v>200524135.00359</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>222868584.50444</v>
+        <v>218501719.0061</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>272068666.27569</v>
+        <v>264086511.64323</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>339506465.23593</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>329627527.49213</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>396296738.469</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>314121.4818</v>
+        <v>310360.11032</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>1256350.46588</v>
+        <v>1247472.62345</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1104455.46059</v>
+        <v>1088218.33294</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>953008.57953</v>
+        <v>929782.0967999999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>966114.99326</v>
+        <v>955205.8213099999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1338278.01781</v>
+        <v>1323407.68018</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>893644.53085</v>
+        <v>1028693.29152</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>995521.53108</v>
+        <v>968190.22089</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>1480001.77822</v>
+        <v>1460992.24443</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1261336.12468</v>
+        <v>1024737.8256</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1500397.26391</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1278792.23926</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1568155.483</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>7532093.77431</v>
+        <v>7499859.02244</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>7482884.77715</v>
+        <v>7437412.23359</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>9346174.228560001</v>
+        <v>9263959.94269</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>13472242.82257</v>
+        <v>13432855.26046</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>15076535.17833</v>
+        <v>15020537.34065</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>21884986.70778</v>
+        <v>21802434.93912</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>19384968.03955</v>
+        <v>19330537.2522</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>5992494.89297</v>
+        <v>5917291.83267</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>4645367.188380001</v>
+        <v>4504725.372119999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>6858419.98924</v>
+        <v>6696126.661440001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>9402191.679260001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>9295882.807530001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>10462295.84</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>2204432.17567</v>
+        <v>2197001.72032</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>911782.64362</v>
+        <v>865939.4836500001</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>1174666.78002</v>
+        <v>1145162.09322</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>1412500.19056</v>
+        <v>1381866.09459</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>7074822.310190001</v>
+        <v>7188580.637800001</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>8534292.105290001</v>
+        <v>8607665.848860001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>12397728.09754</v>
+        <v>12771268.92023</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>25662423.57922</v>
+        <v>25281823.58115</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>19671298.79749</v>
+        <v>19551452.34138</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>26374246.79115</v>
+        <v>26183935.2732</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>34832082.01609</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>34627882.80024</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>37714419.648</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>2126718.1185</v>
+        <v>2122416.38531</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>752330.9254000001</v>
+        <v>732177.98939</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>715590.50872</v>
+        <v>703282.9750099999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>761924.52636</v>
+        <v>746043.7023299999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>1519266.56969</v>
+        <v>1642235.37728</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1459695.25897</v>
+        <v>1551041.85244</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1619754.92794</v>
+        <v>2024413.94406</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>9894000.15088</v>
+        <v>9685854.630510001</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>2663620.31718</v>
+        <v>2615906.34021</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>2841274.3744</v>
+        <v>2737427.1835</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>3192231.65167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>3077730.13355</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>3491907.044</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>33153.38489</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>80124.87754</v>
+        <v>80081.34531999999</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>58889.25134999999</v>
+        <v>57683.33972</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>27803.39896</v>
+        <v>24727.18045</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>7683.64129</v>
+        <v>7565.923900000001</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>14925.69147</v>
+        <v>14873.28885</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>24627.59927</v>
+        <v>23120.24199</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>83312.27946000001</v>
+        <v>45369.61105</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>168952.10137</v>
+        <v>164808.31262</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>235688.74126</v>
+        <v>234796.71569</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>259780.19583</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>258699.37678</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>152897.483</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>44560.67228</v>
+        <v>41431.95012</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>79326.84068000001</v>
+        <v>53680.14894000001</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>400187.01995</v>
+        <v>384195.77849</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>622772.26524</v>
+        <v>611095.21181</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>5547872.09921</v>
+        <v>5538779.33662</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>7059671.15485</v>
+        <v>7041750.707570001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>10753345.57033</v>
+        <v>10723734.73418</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>15685111.14888</v>
+        <v>15550599.33959</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>16838726.37894</v>
+        <v>16770737.68855</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>23297283.67549</v>
+        <v>23211711.37401</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>31380070.16859</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>31291453.28991</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>34069615.121</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>75456025.3071</v>
+        <v>74955859.77566999</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>83862622.28783999</v>
+        <v>82941334.38165</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>94472896.74416</v>
+        <v>93326778.00155</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>120683640.60147</v>
+        <v>119246950.69836</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>147871413.83723</v>
+        <v>146723716.35963</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>167083285.94975</v>
+        <v>166911878.55157</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>173120307.56274</v>
+        <v>183752137.98826</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>185888887.34724</v>
+        <v>182127793.476</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>209322654.67355</v>
+        <v>204915984.28127</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>253814175.59846</v>
+        <v>245623440.85707</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>315576972.16301</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>305574319.73868</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>370612770.144</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>65710274.66836999</v>
+        <v>65250778.79622</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>71507625.20767999</v>
+        <v>70611890.27639</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>84690141.51577</v>
+        <v>83767116.91754998</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>109173002.85318</v>
+        <v>107920037.1899</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>135820655.65429</v>
+        <v>134915064.17406</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>157081050.82771</v>
+        <v>156942605.87588</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>156782485.33313</v>
+        <v>165849834.8086</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>159367025.38957</v>
+        <v>156294009.14344</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>184357303.42232</v>
+        <v>180956161.13753</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>224703219.54534</v>
+        <v>219559898.14449</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>260211052.77208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>254207485.27735</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>307300828.883</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>12839127.92073</v>
+        <v>12664830.29667</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>13461592.46665</v>
+        <v>13049612.56364</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>17138439.14925</v>
+        <v>16722825.20521</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>22411653.19969</v>
+        <v>21794932.3902</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>22585716.29858</v>
+        <v>21548587.09032</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>33969009.78937</v>
+        <v>33015466.87751</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>19301327.08398</v>
+        <v>25220725.85986</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>28348087.22248</v>
+        <v>26634314.29579</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>36874518.00849</v>
+        <v>35172644.27722</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>47382673.70762999</v>
+        <v>44127954.95886999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>52806577.44089</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>49443103.72183</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>55931991.722</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>40163564.78592001</v>
+        <v>40088171.53755</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>44981973.13171</v>
+        <v>44801606.47899</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>50115395.14346</v>
+        <v>49957983.96863001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>62067300.56313001</v>
+        <v>61849973.76746</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>64326527.51791</v>
+        <v>65118030.72792</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>66739971.37895</v>
+        <v>68272421.33738001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>103242386.67786</v>
+        <v>106923150.20034</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>111150720.76808</v>
+        <v>110856022.03501</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>125285536.92013</v>
+        <v>124955150.92822</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>139745220.60967</v>
+        <v>139146718.32546</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>178116685.76874</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>177452503.54899</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>217197175.685</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>5363690.40601</v>
+        <v>5158290.128179999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>5828603.135</v>
+        <v>5537335.52605</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>8390471.044979999</v>
+        <v>8047388.31523</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>12040020.5471</v>
+        <v>11623393.20361</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>35436004.40845</v>
+        <v>34781463.13766</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>36350151.25811</v>
+        <v>35654681.99773</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>17098488.21826</v>
+        <v>16562155.92978</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>19186824.35885</v>
+        <v>18144077.16255</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>21889825.72092</v>
+        <v>20581893.09363</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>33963349.88732</v>
+        <v>32713500.95277</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>23418455.62621</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>21459491.1911</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>28695411.858</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>7343891.55571</v>
+        <v>7339486.833819999</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>7235456.474320001</v>
+        <v>7223335.70771</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>9045836.17808</v>
+        <v>9038919.428479999</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>12654028.54326</v>
+        <v>12651737.82863</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>13472407.42935</v>
+        <v>13466983.21816</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>20021918.40128</v>
+        <v>20000035.66326</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>17140283.35303</v>
+        <v>17143802.81862</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>681393.04016</v>
+        <v>659595.6500899999</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>307422.7727800001</v>
+        <v>246472.83846</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>3611975.34072</v>
+        <v>3571723.90739</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>5869333.936240001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>5852386.81543</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>5476249.618</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>9745750.638729999</v>
+        <v>9705080.979449999</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>12354997.08016</v>
+        <v>12329444.10526</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>9782755.228389999</v>
+        <v>9559661.084000001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>11510637.74829</v>
+        <v>11326913.50846</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>12050758.18294</v>
+        <v>11808652.18557</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>10002235.12204</v>
+        <v>9969272.675689999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>16337822.22961</v>
+        <v>17902303.17966</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>26521861.95767</v>
+        <v>25833784.33256</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>24965351.25123</v>
+        <v>23959823.14374</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>29110956.05312</v>
+        <v>26063542.71258</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>55365919.39093</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>51366834.46133</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>63311941.261</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>4279709.191649999</v>
+        <v>4091725.14923</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>4758962.66742</v>
+        <v>4398045.314280001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>5679378.72126</v>
+        <v>5193724.32201</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>6219474.519769999</v>
+        <v>5752832.8276</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>5644739.961440001</v>
+        <v>5201976.917520001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>6409051.72726</v>
+        <v>5930018.274680001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>7148779.8133</v>
+        <v>7055788.3351</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>8547415.642589999</v>
+        <v>7864669.74142</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>9476717.9168</v>
+        <v>8726170.05259</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>9357483.13821</v>
+        <v>8374264.334340001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>11646059.72947</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>10356173.4385</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>11655474.502</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>16363.09683</v>
+        <v>8153.45146</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>15375.81523</v>
+        <v>14161.94984</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>13567.12704</v>
+        <v>13216.70501</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>23299.27542</v>
+        <v>22953.8737</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>15015.24504</v>
+        <v>14738.23107</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>27631.19562</v>
+        <v>24904.92171</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>31122.65717</v>
+        <v>27733.85052</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>25253.08344</v>
+        <v>25187.38631</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>52950.44725</v>
+        <v>27585.8134</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>47384.89279000001</v>
+        <v>26239.04415</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>64084.30997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>29164.21932</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>36773.822</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>2551629.09733</v>
+        <v>2523284.55995</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>2688682.15148</v>
+        <v>2658013.89455</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>3250811.11129</v>
+        <v>3204922.08035</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>3418676.38854</v>
+        <v>3383302.63511</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>2533263.55342</v>
+        <v>2534591.32266</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>3067996.28514</v>
+        <v>3081917.82736</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>3157520.94312</v>
+        <v>3199253.88349</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>3577006.55468</v>
+        <v>3520423.51138</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>4120289.66889</v>
+        <v>4091565.65166</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>3514093.42766</v>
+        <v>3412759.73405</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>3999006.11246</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>3900729.29969</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>4888555.364</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>1711716.99749</v>
+        <v>1560287.13782</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>2054904.70071</v>
+        <v>1725869.46989</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>2415000.48293</v>
+        <v>1975585.53665</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>2777498.85581</v>
+        <v>2346576.31879</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>3096461.16298</v>
+        <v>2652647.36379</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>3313424.2465</v>
+        <v>2823195.52561</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>3960136.21301</v>
+        <v>3828800.60109</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>4945156.00447</v>
+        <v>4319058.843730001</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>5303477.80066</v>
+        <v>4607018.58753</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>5796004.81776</v>
+        <v>4935265.55614</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>7582969.30704</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>6426279.91949</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>6730145.316</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>5466041.44708</v>
+        <v>5613355.83022</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>7596034.41274</v>
+        <v>7931398.79098</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>4103376.50713</v>
+        <v>4365936.76199</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>5291163.22852</v>
+        <v>5574080.68086</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>6406018.221500001</v>
+        <v>6606675.268049999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>3593183.39478</v>
+        <v>4039254.40101</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>9189042.416309999</v>
+        <v>10846514.84456</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>17974446.31508</v>
+        <v>17969114.59114</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>15488633.33443</v>
+        <v>15233653.09115</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>19753472.91491</v>
+        <v>17689278.37824</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>43719859.66146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>41010661.02283</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>51656466.759</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>6775297.85863</v>
+        <v>6030481.725190001</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>8302954.28633</v>
+        <v>7504828.10186</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>10794757.28389</v>
+        <v>9441131.890629999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>11476305.18489</v>
+        <v>9559743.10864</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>14465522.22642</v>
+        <v>12683355.67702</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>17255798.96892</v>
+        <v>14805612.29046</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>19672598.00653</v>
+        <v>17430931.24858</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>23306175.89779</v>
+        <v>20081477.31926</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>33639067.01848</v>
+        <v>28493729.74645</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>73843592.47915</v>
+        <v>52173310.05351</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>47001834.50385001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>36549062.35147</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>54500189.103</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>76069.28312000001</v>
+        <v>45182.19319000001</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>237793.54921</v>
+        <v>52400.24124</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>91500.80614</v>
+        <v>16964.29513</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>160590.15776</v>
+        <v>55103.86018</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>217385.06868</v>
+        <v>65003.44652</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>188586.63472</v>
+        <v>55216.94311</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>187748.09486</v>
+        <v>69625.20821</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>354338.67129</v>
+        <v>187264.43992</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>704240.0116699999</v>
+        <v>508460.33077</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>970757.57589</v>
+        <v>892780.76896</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>755552.62473</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>501323.73037</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>810012.532</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>271932.01509</v>
+        <v>178948.44888</v>
       </c>
       <c r="D27" s="48" t="n">
         <v>316635.07983</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>778038.33583</v>
+        <v>775586.54807</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>1102393.1576</v>
+        <v>944739.13471</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>1087467.70425</v>
+        <v>890066.7157000001</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>836692.32689</v>
+        <v>623098.0064900001</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>870291.7384500001</v>
+        <v>728310.54495</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>1887319.71066</v>
+        <v>1532645.83968</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>3282350.49344</v>
+        <v>3196481.80074</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>6837254.80918</v>
+        <v>1186810.44794</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>3955809.846900001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>1327058.22375</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>1913690.044</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>464073.0209999999</v>
+        <v>405173.55837</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>599024.72731</v>
+        <v>539564.5957000001</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>864637.22615</v>
+        <v>754168.85646</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1180906.99012</v>
+        <v>1021007.98612</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1574867.50647</v>
+        <v>1381663.18067</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1900017.61091</v>
+        <v>1588582.09767</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>2053124.07225</v>
+        <v>1851017.81747</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>2596742.41338</v>
+        <v>2231575.4307</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>3666692.28309</v>
+        <v>2931846.05518</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>5759339.433780001</v>
+        <v>4869259.04207</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>7345057.58661</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>6752187.17038</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>5741599.627</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>4275.869479999999</v>
+        <v>4271.732019999999</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>1369.82525</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>321.98486</v>
+        <v>298.89549</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>11381.17962</v>
+        <v>10570.51622</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>5209.68946</v>
+        <v>3978.85255</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>4692.64103</v>
+        <v>4484.84056</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>5349.46476</v>
+        <v>149.77741</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>2592.79223</v>
+        <v>1608.07692</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>19824.70968</v>
+        <v>12649.70763</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>94619.96170999999</v>
+        <v>5602.67887</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>17272.71008</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>10206.28766</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>15580.782</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>241849.89553</v>
+        <v>232798.03647</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>970769.73711</v>
+        <v>955363.79602</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>1491589.45495</v>
+        <v>1371268.67622</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>426350.65448</v>
+        <v>408702.47818</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>503450.31721</v>
+        <v>487032.88525</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>657842.9745600001</v>
+        <v>655296.7893300001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>828869.53042</v>
+        <v>833035.2299699999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1003200.18759</v>
+        <v>969254.9500599999</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>942846.4385299999</v>
+        <v>926068.8299199999</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>1054780.1683</v>
+        <v>1036113.05905</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1924499.22178</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1147792.59464</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>1630820.467</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1858.34219</v>
+        <v>992.5163700000001</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>5040.788570000001</v>
+        <v>3016.16317</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>4235.4457</v>
+        <v>1889.47681</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>41948.43351</v>
+        <v>3466.47877</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>14116.54</v>
+        <v>11885.2183</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>39004.96715</v>
+        <v>1452.57275</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>6607.391380000001</v>
+        <v>4885.831529999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>60027.53612</v>
+        <v>56173.45973</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>633173.27703</v>
+        <v>33302.91172</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>641276.64292</v>
+        <v>256372.56672</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1337145.32759</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1175013.78054</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>186681.362</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>2393899.40607</v>
+        <v>1921946.54603</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>2661740.91199</v>
+        <v>2148027.05283</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>3547324.536319999</v>
+        <v>2546113.95798</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>4376644.81791</v>
+        <v>2966747.6122</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>5157711.00242</v>
+        <v>3900590.16533</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>7960184.00074</v>
+        <v>6196913.33993</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>8991760.182089999</v>
+        <v>7224757.25899</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>10538077.35639</v>
+        <v>8315784.52758</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>17363515.64516</v>
+        <v>14032700.25643</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>47037648.87550999</v>
+        <v>33139887.98441</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>20152143.00921</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>14872149.3768</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>26375875.4</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>6208.867969999999</v>
+        <v>200.8809</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>6017.65146</v>
+        <v>3898.91776</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>1274.05462</v>
+        <v>43.99477</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>707.7448900000001</v>
+        <v>86.79044999999999</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>2396.11704</v>
+        <v>2241.02422</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>50.73655</v>
+        <v>12.77404</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>39.45467</v>
+        <v>0</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>83.55493</v>
+        <v>80.62269999999999</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>11.45169</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>4477992.515</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,248 +2164,283 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>3315131.15818</v>
+        <v>3240967.81296</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>3504562.015600001</v>
+        <v>3484552.43006</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>4015835.43932</v>
+        <v>3974797.1897</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>4175380.119</v>
+        <v>4149316.32181</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>5902918.28089</v>
+        <v>5940894.188480001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>5668727.07637</v>
+        <v>5680554.92658</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>6728808.077649999</v>
+        <v>6719149.580049999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>6863793.675199999</v>
+        <v>6787089.97197</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>7026412.70819</v>
+        <v>6852208.402370001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>11444158.01208</v>
+        <v>10782726.50571</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>11514354.17695</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>10763331.18733</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>13347936.374</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>5180035.518479999</v>
+        <v>4713814.3469</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>4899072.09014</v>
+        <v>4435394.707179999</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>8142974.049810001</v>
+        <v>6036227.0139</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>6245514.79861</v>
+        <v>5231423.48229</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>15501974.14733</v>
+        <v>12778241.08764</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>14470421.51156</v>
+        <v>12167042.72632</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>22611122.29198</v>
+        <v>19105338.84288</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>27150274.62486</v>
+        <v>23061249.75665</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>28249566.03272</v>
+        <v>23477928.71557</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>73455756.39455</v>
+        <v>54501728.23127001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>39964522.3925</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>33448351.88335</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>58755526.212</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>2928.8495</v>
+        <v>1757.28241</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>5406.227339999999</v>
+        <v>5251.078530000001</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>12020.01968</v>
+        <v>2862.50463</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>2137.50074</v>
+        <v>2041.73075</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>10605.76066</v>
+        <v>1120.1552</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1921.44429</v>
+        <v>1824.72839</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>17094.94218</v>
+        <v>14821.69582</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>13940.83483</v>
+        <v>11797.74013</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>6069.62596</v>
+        <v>2300.77627</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>16620.05478</v>
+        <v>3264.19174</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>17775.99474</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>10687.78751</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>2979.212</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>747767.8907699999</v>
+        <v>743876.2114400001</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1334028.86521</v>
+        <v>1331732.37803</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>702907.2908099999</v>
+        <v>699495.0311899999</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>894684.04445</v>
+        <v>890080.13749</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1496658.99704</v>
+        <v>1539034.2221</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>866087.43949</v>
+        <v>967211.67084</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>800937.6605700001</v>
+        <v>878762.42905</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>1450779.60151</v>
+        <v>1444806.9291</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>1632239.61936</v>
+        <v>1622942.58466</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>1970169.65938</v>
+        <v>1962575.30331</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>3300076.667580001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>3289439.12077</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>4421478.771</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>25.23742</v>
+        <v>0</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>210.3824</v>
+        <v>0</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>185.56104</v>
+        <v>177.28455</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>6507.30429</v>
+        <v>6501.41683</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>1026.03559</v>
+        <v>1021.02756</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>3138.423</v>
+        <v>1236.02172</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>2664.57653</v>
+        <v>2646.7583</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>44939.68717</v>
+        <v>44872.25389</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>88861.68334</v>
+        <v>72441.73948999999</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>19902.92752</v>
+        <v>16785.05151</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>73367.13590000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>67116.21776</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>39515.838</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>1600494.82311</v>
+        <v>1171563.68547</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1782376.58428</v>
+        <v>1341168.94402</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>4600605.61608</v>
+        <v>2549823.50302</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2727034.03419</v>
+        <v>1785492.6152</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>9759135.91529</v>
+        <v>7068194.116859999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>9509636.589229999</v>
+        <v>7200952.483279999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>16267471.02468</v>
+        <v>12764220.32784</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>20139775.24223</v>
+        <v>16220753.13717</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>21022755.74972</v>
+        <v>16434930.20199</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>64301397.96367</v>
+        <v>45606345.20917</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>27468746.14728</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>21267810.8659</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>39705298.771</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>90.22676</v>
+        <v>82.46217999999999</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>54.94027</v>
@@ -2366,31 +2452,36 @@
         <v>42.33321</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>175.01719</v>
+        <v>12.77404</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>55.03899</v>
+        <v>0</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>18.16009</v>
+        <v>80.62269999999999</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>24315.33866</v>
+        <v>356.90789</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>8230.27303</v>
+        <v>15.06372</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>0</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>336.67619</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>6647107.201</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2420,598 +2511,676 @@
         <v>0</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>0.243</v>
+        <v>0</v>
       </c>
       <c r="M42" s="48" t="n">
         <v>18857.09851</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>8.226000000000001</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>2828728.49092</v>
+        <v>2796534.7054</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1776995.09064</v>
+        <v>1757187.36633</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>2827169.41778</v>
+        <v>2783782.54609</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>2615109.581730001</v>
+        <v>2547265.24881</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>4234372.42156</v>
+        <v>4168858.791879999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>4089582.57656</v>
+        <v>3995817.82209</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>5522935.927929999</v>
+        <v>5444807.00917</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>5476523.92046</v>
+        <v>5338662.78847</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>5491409.081309999</v>
+        <v>5345298.34944</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>7147665.5462</v>
+        <v>6912758.47554</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>9085362.672300002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>8794440.7929</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>7939138.193</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>2025850.56358</v>
+        <v>1765342.84889</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>2056787.54569</v>
+        <v>1620647.51006</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>4356364.36704</v>
+        <v>3462541.10553</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>2680044.6451</v>
+        <v>1948121.42226</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>5686639.753610001</v>
+        <v>4342294.09619</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>6118312.55552</v>
+        <v>4743155.141489999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>9963395.919730002</v>
+        <v>8803890.828229999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>13508644.90115</v>
+        <v>11390103.07417</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>17438323.55332</v>
+        <v>14892071.62561</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>37140125.15631</v>
+        <v>30060304.37298</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>30395026.50149</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>26079266.82703</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>33836409.103</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>733026.7414500001</v>
+        <v>610158.0817400001</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>1094077.40562</v>
+        <v>813407.639</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>1989612.42382</v>
+        <v>1494039.39927</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>1398688.55733</v>
+        <v>979256.0567999999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>2436690.76359</v>
+        <v>1726538.54674</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>3265317.54282</v>
+        <v>2556798.4168</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>4761330.461390001</v>
+        <v>4216696.46267</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>7438045.664280001</v>
+        <v>6219828.07934</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>9072522.65385</v>
+        <v>7410150.1178</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>19115828.25296</v>
+        <v>15037834.75439</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>17879114.14461</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>15226325.37733</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>14386367.751</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>1292823.82213</v>
+        <v>1155184.76715</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>962710.14007</v>
+        <v>807239.87106</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>2366751.94322</v>
+        <v>1968501.70626</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>1281356.08777</v>
+        <v>968865.36546</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>3249948.99002</v>
+        <v>2615755.54945</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>2852995.0127</v>
+        <v>2186356.72469</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>5202065.45834</v>
+        <v>4587194.365560001</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>6070599.23687</v>
+        <v>5170274.99483</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>8365800.899470001</v>
+        <v>7481921.50781</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>18024296.90335</v>
+        <v>15022469.61859</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>12515912.35688</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>10852941.4497</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>19450041.352</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>5035453.223650001</v>
+        <v>5164680.35962</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>8943129.063239999</v>
+        <v>9380184.675599998</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>2398795.37417</v>
+        <v>4308300.53319</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>7841908.9697</v>
+        <v>7954278.88495</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-317073.45302</v>
+        <v>2169495.76124</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>260248.29662</v>
+        <v>1934668.82366</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-3712877.78887</v>
+        <v>368216.42203</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>621702.6868600001</v>
+        <v>3599239.07958</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>3439810.76687</v>
+        <v>5357382.49642</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-16998816.1568</v>
+        <v>-14699444.1725</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>20362145.27132</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>18032104.66392</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>13564720.547</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>2287393.97941</v>
+        <v>2244093.56285</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>3055776.24989</v>
+        <v>2997502.24614</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>11402818.94974</v>
+        <v>10962895.14812</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>3175674.79934</v>
+        <v>3110183.60185</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>4805738.65498</v>
+        <v>4722695.88939</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>2114761.21047</v>
+        <v>1983305.4266</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1556229.52101</v>
+        <v>1510080.08358</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>2679439.96012</v>
+        <v>2017182.9623</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>2718966.91486</v>
+        <v>2446091.63951</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>3779360.84129</v>
+        <v>3129197.58022</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>4234686.97656</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>3922727.70601</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>2256021.007</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>30932.10898</v>
+        <v>22941.66666</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>39677.14874</v>
+        <v>39171.35361999999</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>209470.60782</v>
+        <v>206246.22386</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>333678.95333</v>
+        <v>332267.67963</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>742127.42339</v>
+        <v>722930.7691599999</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>91542.65615</v>
+        <v>90587.06366</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>106708.83108</v>
+        <v>109036.27668</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>73887.35919</v>
+        <v>70612.72833</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>129607.96296</v>
+        <v>128687.22471</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>256792.12021</v>
+        <v>256666.8738</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>78573.03525</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>77797.40198000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>211592.543</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>2256461.87043</v>
+        <v>2221151.89619</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>3016099.10115</v>
+        <v>2958330.89252</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>11193348.34192</v>
+        <v>10756648.92426</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>2841995.84601</v>
+        <v>2777915.92222</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>4063611.23159</v>
+        <v>3999765.12023</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>2023218.55432</v>
+        <v>1892718.36294</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1449520.68993</v>
+        <v>1401043.8069</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>2605552.60093</v>
+        <v>1946570.23397</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>2589358.9519</v>
+        <v>2317404.4148</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>3522568.72108</v>
+        <v>2872530.70642</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>4156113.94131</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>3844930.30403</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>2044428.464</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>3959258.18272</v>
+        <v>3905716.77211</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>5201502.36697</v>
+        <v>5061167.91012</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>13153470.75282</v>
+        <v>13035853.17106</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>4137000.72815</v>
+        <v>4003473.76588</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>9659447.944130002</v>
+        <v>9618451.14484</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>4440511.27764</v>
+        <v>4499331.81259</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>2052210.77896</v>
+        <v>2836035.48679</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>2854843.76629</v>
+        <v>1896265.19207</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>4110154.76687</v>
+        <v>2996639.85208</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>3760492.58013</v>
+        <v>2583205.22628</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>4284120.64139</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>3966596.12093</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>3088373.135</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>825714.6248999999</v>
+        <v>799969.35803</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>970384.1782999999</v>
+        <v>912692.40574</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>746212.52884</v>
+        <v>736490.9600399999</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>860541.16649</v>
+        <v>824332.15828</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>560437.21583</v>
+        <v>523469.93222</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>790354.86324</v>
+        <v>686062.1107300001</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>325355.29414</v>
+        <v>872379.39428</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>900642.1329300001</v>
+        <v>782646.59936</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>1142847.38743</v>
+        <v>1094792.86396</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>641194.10447</v>
+        <v>509559.0781</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>747761.93244</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>672534.42714</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>906244.759</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>765917.38194</v>
+        <v>760733.7481</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>621994.6641899999</v>
+        <v>615193.6008100001</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>3104958.37015</v>
+        <v>3086375.70291</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>459194.68022</v>
+        <v>454468.94641</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1201365.5274</v>
+        <v>1273284.86531</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>308610.84102</v>
+        <v>411079.35994</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>194232.53823</v>
+        <v>283826.78314</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>262650.70319</v>
+        <v>243621.07454</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>459302.99626</v>
+        <v>453954.73113</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>383854.60076</v>
+        <v>376144.52159</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>582356.20425</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>554151.92868</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>502494.699</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>2367626.17588</v>
+        <v>2345013.66598</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>3609123.52448</v>
+        <v>3533281.90357</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>9302299.853830002</v>
+        <v>9212986.50811</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>2817264.88144</v>
+        <v>2724672.66119</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>7897645.2009</v>
+        <v>7821696.34731</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>3341545.573379999</v>
+        <v>3402190.34192</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>1532622.94659</v>
+        <v>1679829.30937</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>1691550.93017</v>
+        <v>869997.5181700001</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>2508004.38318</v>
+        <v>1447892.25699</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>2735443.8749</v>
+        <v>1697501.62659</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>2954002.5047</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>2739909.76511</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1679633.677</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>3363589.02034</v>
+        <v>3503057.15036</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>6797402.946159999</v>
+        <v>7316519.011620001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>648143.5710899999</v>
+        <v>2235342.51025</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>6880583.040890001</v>
+        <v>7060988.720919999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-5170782.74217</v>
+        <v>-2726259.49421</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-2065501.77055</v>
+        <v>-581357.56233</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-4208859.04682</v>
+        <v>-957738.98118</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>446298.88069</v>
+        <v>3720156.84981</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>2048622.91486</v>
+        <v>4806834.28385</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-16979947.89564</v>
+        <v>-14153451.81856</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>20312711.60649</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>17988236.249</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>12732368.419</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>457589.24841</v>
+        <v>446382.02038</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>1317138.85978</v>
+        <v>1304410.91503</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>920095.3630799999</v>
+        <v>900400.1694700001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>1234154.61865</v>
+        <v>1217943.5306</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>1724176.1575</v>
+        <v>1640248.60719</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1216053.20845</v>
+        <v>1192803.04993</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1381444.0618</v>
+        <v>1339912.26955</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1671505.92338</v>
+        <v>1628615.57943</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>1713899.00317</v>
+        <v>1654132.43131</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>2040428.64034</v>
+        <v>1919369.20811</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>3011382.00608</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>2866739.03264</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>4244971.756</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>2905999.77193</v>
+        <v>3056675.12998</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>5480264.08638</v>
+        <v>6012108.09659</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-271951.79199</v>
+        <v>1334942.34078</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>5646428.42224</v>
+        <v>5843045.19032</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-6894958.899669999</v>
+        <v>-4366508.1014</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-3281554.979</v>
+        <v>-1774160.61226</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-5590303.10862</v>
+        <v>-2297651.25073</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-1225207.04269</v>
+        <v>2091541.27038</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>334723.9116900001</v>
+        <v>3152701.85254</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-19020376.53598</v>
+        <v>-16072821.02667</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>17301329.60041</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>15121497.21636</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>8487396.663000001</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>259</v>
+        <v>122</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>325</v>
+        <v>135</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>425</v>
+        <v>168</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>521</v>
+        <v>201</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>519</v>
+        <v>214</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>569</v>
+        <v>230</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>707</v>
+        <v>301</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>786</v>
+        <v>324</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>451</v>
+        <v>218</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>229</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>